--- a/medicine/Handicap/La_Sentinelle_(film,_2014)/La_Sentinelle_(film,_2014).xlsx
+++ b/medicine/Handicap/La_Sentinelle_(film,_2014)/La_Sentinelle_(film,_2014).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sentinelle (Dying of the Light) est un thriller américain écrit et réalisé par Paul Schrader et sorti en 2014.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Evan Lake (Nicolas Cage), un ancien agent de la CIA, diagnostiqué comme étant atteint de démence, apprend que son ennemi de toujours, Muhammad Banir (Alexander Karim) jadis laissé pour mort, a refait surface. Il devient ensuite complètement obsédé par son désir de vengeance avant de totalement perdre la tête.
 </t>
@@ -542,7 +556,9 @@
           <t>Synopsis détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Evan Lake est un agent vétéran de la CIA très décoré et récipiendaire de l'Intelligence Star réduit à un travail de bureau à Langley avec son protégé et ami proche Milton "Milt" Schultz. Il y a 22 ans, lors d'une opération en Afrique, Lake a été capturé par le terroriste Muhammad Banir et torturé en se faisant frapper à plusieurs reprises à la tête et en se faisant mutiler l'oreille. Au cours de l'extraction et de l'explosion qui a suivi, Banir a disparu et a été présumé mort, bien que Lake ne l'ait jamais cru et ait depuis tenté de manière obsessionnelle de retrouver Banir. En raison du traumatisme qu'il a subi sous la torture, Lake souffre maintenant d'une démence fronto temporale à un stade précoce, et son patron le considère comme une responsabilité envers l'agence.
 À Bucarest, la police suit un ressortissant kényan, Abdi, portant une mystérieuse clé USB. Une poursuite en voiture s'ensuit, et plutôt que de s'abandonner, le courrier se jette lui-même en bas d'un pont avec sa voiture. Les services de renseignement roumains récupèrent le lecteur et le corps, mais les données sont corrompues, donc elles sont ensuite envoyées à la CIA. Milt obtient un succès sur de grandes quantités d'un médicament expérimental traitant la thalassémie, informations corroborées dans les données USB. Les médicaments sont destinés à un client kenyan anonyme et proviennent d'une clinique de l'Université de Bucarest dirigée par le professeur Dr Iulian Cornel. La thalassémie étant héréditaire, Milt conclut que Banir commande des expéditions de la drogue par l'intermédiaire d'un intermédiaire, le Dr Wangari. Il en informe Lake, qui demande à ses supérieurs de s'en prendre à Banir. Cependant, ils croient toujours qu'il est mort et refusent. Plus tard, Lake fait une violente explosion lors d'une perquisition et démissionne sur-le-champ. Pendant ce temps, au Kenya, Banir envoie son homme Aasim à Bucarest pour découvrir pourquoi Abdi n'a pas délivré le médicament.
@@ -576,11 +592,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Dying of the Light
-Titre français : La Sentinelle[1]
+Titre français : La Sentinelle
 Titre québécois : La Vengeance dans le sang
 Réalisation et scénario : Paul Schrader
 Musique : Frederik Wiedmann
@@ -599,7 +617,7 @@
 Format : couleur - 35 mm - 2,35:1 - son Dolby numérique
 Genre : thriller
 Durée : 94 minutes
-Dates de sortie[2] :
+Dates de sortie :
 États-Unis : 5 décembre 2014
 France : 15 juillet 2015 (sorti directement en DVD)
 Belgique : 26 août 2015</t>
@@ -630,7 +648,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nicolas Cage (VF : Dominique Collignon-Maurin ; VQ : Benoît Rousseau) : Evan Lake
 Anton Yelchin (VF : Donald Reignoux) : Milton Schultz
@@ -645,7 +665,7 @@
 Serban Celea (VF : Denis Boileau) : Dr Iulian Cornel
 Derek Ezenagu : Dr Wangari
 Tim Silano : Mike Warner
-Version française (VF) selon le carton du doublage français sur le DVD zone 2[3] ; version québécoise (VQ) sur Doublage.qc.ca[4]</t>
+Version française (VF) selon le carton du doublage français sur le DVD zone 2 ; version québécoise (VQ) sur Doublage.qc.ca</t>
         </is>
       </c>
     </row>
@@ -675,13 +695,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Le script de Paul Schrader devait initialement être mis en scène en 2010 par Nicolas Winding Refn avec Harrison Ford et Channing Tatum dans les rôles principaux[5]. Cependant, le réalisateur danois quitte le projet pour se concentrer sur Drive[6]. En juin 2013, il est annoncé que Paul Schrader va finalement réaliser le film en plus d'en être scénariste alors que Nicolas Winding Refn est finalement producteur[7].
-En mars 2014, la société Red Granite International se joint au projet[8], alors que les droits de distribution sont acquis par Lionsgate Home Entertainment quelques mois plus tard[9].
-Attribution des rôles
-En juillet 2013, Nicolas Cage est annoncé dans le rôle principal, un temps envisagé pour Harrison Ford[10]. En janvier 2014, il est rejoint par Anton Yelchin (qui remplace Channing Tatum) ainsi que par Irène Jacob et Alexander Karim[11].
-Tournage
-Le tournage débute en janvier 2014[11]. Il a lieu en Roumanie, notamment dans les Castel Film Studios de Bucarest[12]. En mars 2014, les prises de vues se poursuivent dans le Queensland en Australie[13],[14].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le script de Paul Schrader devait initialement être mis en scène en 2010 par Nicolas Winding Refn avec Harrison Ford et Channing Tatum dans les rôles principaux. Cependant, le réalisateur danois quitte le projet pour se concentrer sur Drive. En juin 2013, il est annoncé que Paul Schrader va finalement réaliser le film en plus d'en être scénariste alors que Nicolas Winding Refn est finalement producteur.
+En mars 2014, la société Red Granite International se joint au projet, alors que les droits de distribution sont acquis par Lionsgate Home Entertainment quelques mois plus tard.
 </t>
         </is>
       </c>
@@ -707,15 +728,94 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2013, Nicolas Cage est annoncé dans le rôle principal, un temps envisagé pour Harrison Ford. En janvier 2014, il est rejoint par Anton Yelchin (qui remplace Channing Tatum) ainsi que par Irène Jacob et Alexander Karim.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Sentinelle_(film,_2014)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Sentinelle_(film,_2014)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute en janvier 2014. Il a lieu en Roumanie, notamment dans les Castel Film Studios de Bucarest. En mars 2014, les prises de vues se poursuivent dans le Queensland en Australie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Sentinelle_(film,_2014)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Sentinelle_(film,_2014)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Sortie et accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Appel au boycott et nouvelle version
-En octobre 2014, soit moins de deux mois avant la sortie du film, le réalisateur Paul Schrader, épaulé par les acteurs Nicolas Cage et Anton Yelchin ainsi que du producteur Nicolas Winding Refn, appelle à boycotter le film après une mésentente avec le studio Lionsgate. En effet, sur sa page Facebook, le réalisateur écrit notamment « Nous avons perdu la bataille. Dying of the Light (...) m'a été retiré pour être remonté, mis en musique et mixé sans ma participation »[15].
-En 2017, Paul Schrader retravaille le film pour une version proche de ses intentions de départ, à partir de copies DVD workprint qu'il intitule Dark. Cette version director's cut n'est pas destinée à des projections publiques ni à une sortie officielle, mais est disponible au sein de la UCLA Film and Television Archive (en), du Harry Ransom Center et au Museum of Modern Art Department of Film (en)[16]. En 2018, il rend cette version disponible sur BitTorrent et The Pirate Bay. Le cinéaste déclare notamment : « J'ai fait Dog Eat Dog pour me racheter de l'humiliation de Dying of the Light, qui m'a été enlevé. Nic et moi l'avons désavoué, j'ai ensuite fait mon propre montage, je l'ai mis sur torrent, mais c'était un tueur de carrière[17],[18],[19]. »
-Critique</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Appel au boycott et nouvelle version</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2014, soit moins de deux mois avant la sortie du film, le réalisateur Paul Schrader, épaulé par les acteurs Nicolas Cage et Anton Yelchin ainsi que du producteur Nicolas Winding Refn, appelle à boycotter le film après une mésentente avec le studio Lionsgate. En effet, sur sa page Facebook, le réalisateur écrit notamment « Nous avons perdu la bataille. Dying of the Light (...) m'a été retiré pour être remonté, mis en musique et mixé sans ma participation ».
+En 2017, Paul Schrader retravaille le film pour une version proche de ses intentions de départ, à partir de copies DVD workprint qu'il intitule Dark. Cette version director's cut n'est pas destinée à des projections publiques ni à une sortie officielle, mais est disponible au sein de la UCLA Film and Television Archive (en), du Harry Ransom Center et au Museum of Modern Art Department of Film (en). En 2018, il rend cette version disponible sur BitTorrent et The Pirate Bay. Le cinéaste déclare notamment : « J'ai fait Dog Eat Dog pour me racheter de l'humiliation de Dying of the Light, qui m'a été enlevé. Nic et moi l'avons désavoué, j'ai ensuite fait mon propre montage, je l'ai mis sur torrent, mais c'était un tueur de carrière. »
+</t>
         </is>
       </c>
     </row>
